--- a/revise2/Dried_fish_Dataset_S1.xlsx
+++ b/revise2/Dried_fish_Dataset_S1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/dried-fish/revise1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrobinson/Documents/git-repos/dried-fish/revise2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66286BF8-4214-1345-A22D-4A3028753F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B475CCD-CC60-A444-9D64-347F17622052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset S1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="84">
   <si>
     <t>Common name</t>
   </si>
@@ -289,9 +289,6 @@
   <si>
     <t>Trachurus sp.</t>
   </si>
-  <si>
-    <t>Dataset S1 | Nutrient concentrations in fresh and processed fish samples.</t>
-  </si>
 </sst>
 </file>
 
@@ -301,7 +298,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -377,13 +374,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -498,7 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,10 +706,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO982"/>
+  <dimension ref="A1:AO981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4702,9 +4691,8 @@
       <c r="AO37" s="18"/>
     </row>
     <row r="38" spans="1:41" ht="16">
-      <c r="A38" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -4749,39 +4737,39 @@
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
       <c r="AK39" s="18"/>
       <c r="AL39" s="18"/>
       <c r="AM39" s="18"/>
@@ -4789,123 +4777,118 @@
       <c r="AO39" s="18"/>
     </row>
     <row r="40" spans="1:41" ht="16">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-      <c r="AO40" s="18"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
     </row>
     <row r="41" spans="1:41" ht="16">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-    </row>
-    <row r="42" spans="1:41" ht="16">
-      <c r="A42" s="23"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="23"/>
-      <c r="AG42" s="23"/>
-      <c r="AH42" s="23"/>
-      <c r="AI42" s="23"/>
-      <c r="AJ42" s="23"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+    </row>
+    <row r="44" spans="1:41" ht="16">
+      <c r="A44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
     </row>
     <row r="45" spans="1:41" ht="16">
       <c r="A45" s="23"/>
@@ -5071,7 +5054,7 @@
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -5109,7 +5092,7 @@
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
-      <c r="L50" s="25"/>
+      <c r="L50" s="23"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
@@ -5185,7 +5168,7 @@
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
@@ -5223,7 +5206,7 @@
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
-      <c r="L53" s="25"/>
+      <c r="L53" s="23"/>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
@@ -5382,7 +5365,7 @@
       <c r="P57" s="23"/>
       <c r="Q57" s="23"/>
       <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
+      <c r="S57" s="25"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
       <c r="V57" s="23"/>
@@ -5420,7 +5403,7 @@
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
-      <c r="S58" s="25"/>
+      <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
       <c r="V58" s="23"/>
@@ -5796,7 +5779,7 @@
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
+      <c r="O68" s="25"/>
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
@@ -5834,7 +5817,7 @@
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
-      <c r="O69" s="25"/>
+      <c r="O69" s="23"/>
       <c r="P69" s="23"/>
       <c r="Q69" s="23"/>
       <c r="R69" s="23"/>
@@ -5909,8 +5892,8 @@
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
       <c r="P71" s="23"/>
       <c r="Q71" s="23"/>
       <c r="R71" s="23"/>
@@ -5947,8 +5930,8 @@
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
       <c r="P72" s="23"/>
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
@@ -5993,7 +5976,7 @@
       <c r="S73" s="23"/>
       <c r="T73" s="23"/>
       <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
+      <c r="V73" s="25"/>
       <c r="W73" s="23"/>
       <c r="X73" s="23"/>
       <c r="Y73" s="23"/>
@@ -6011,10 +5994,9 @@
     </row>
     <row r="74" spans="1:41" ht="16">
       <c r="A74" s="23"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="21"/>
-      <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
@@ -6024,14 +6006,14 @@
       <c r="L74" s="23"/>
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
+      <c r="O74" s="25"/>
       <c r="P74" s="23"/>
       <c r="Q74" s="23"/>
       <c r="R74" s="23"/>
       <c r="S74" s="23"/>
       <c r="T74" s="23"/>
       <c r="U74" s="23"/>
-      <c r="V74" s="25"/>
+      <c r="V74" s="23"/>
       <c r="W74" s="23"/>
       <c r="X74" s="23"/>
       <c r="Y74" s="23"/>
@@ -6061,7 +6043,7 @@
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
-      <c r="O75" s="25"/>
+      <c r="O75" s="23"/>
       <c r="P75" s="23"/>
       <c r="Q75" s="23"/>
       <c r="R75" s="23"/>
@@ -6086,9 +6068,10 @@
     </row>
     <row r="76" spans="1:41" ht="16">
       <c r="A76" s="23"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="21"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
@@ -6122,50 +6105,55 @@
       <c r="AJ76" s="23"/>
     </row>
     <row r="77" spans="1:41" ht="16">
-      <c r="A77" s="23"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="23"/>
-      <c r="Z77" s="23"/>
-      <c r="AA77" s="23"/>
-      <c r="AB77" s="23"/>
-      <c r="AC77" s="23"/>
-      <c r="AD77" s="23"/>
-      <c r="AE77" s="23"/>
-      <c r="AF77" s="23"/>
-      <c r="AG77" s="23"/>
-      <c r="AH77" s="23"/>
-      <c r="AI77" s="23"/>
-      <c r="AJ77" s="23"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
+      <c r="V77" s="18"/>
+      <c r="W77" s="18"/>
+      <c r="X77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="18"/>
+      <c r="AA77" s="18"/>
+      <c r="AB77" s="18"/>
+      <c r="AC77" s="18"/>
+      <c r="AD77" s="18"/>
+      <c r="AE77" s="18"/>
+      <c r="AF77" s="18"/>
+      <c r="AG77" s="18"/>
+      <c r="AH77" s="18"/>
+      <c r="AI77" s="18"/>
+      <c r="AJ77" s="18"/>
+      <c r="AK77" s="18"/>
+      <c r="AL77" s="18"/>
+      <c r="AM77" s="18"/>
+      <c r="AN77" s="18"/>
+      <c r="AO77" s="18"/>
     </row>
     <row r="78" spans="1:41" ht="16">
       <c r="A78" s="18"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
@@ -45031,53 +45019,10 @@
       <c r="AN981" s="18"/>
       <c r="AO981" s="18"/>
     </row>
-    <row r="982" spans="1:41" ht="16">
-      <c r="A982" s="18"/>
-      <c r="B982" s="18"/>
-      <c r="C982" s="18"/>
-      <c r="D982" s="18"/>
-      <c r="E982" s="18"/>
-      <c r="F982" s="18"/>
-      <c r="G982" s="18"/>
-      <c r="H982" s="18"/>
-      <c r="I982" s="18"/>
-      <c r="J982" s="18"/>
-      <c r="K982" s="18"/>
-      <c r="L982" s="18"/>
-      <c r="M982" s="18"/>
-      <c r="N982" s="18"/>
-      <c r="O982" s="18"/>
-      <c r="P982" s="18"/>
-      <c r="Q982" s="18"/>
-      <c r="R982" s="18"/>
-      <c r="S982" s="18"/>
-      <c r="T982" s="18"/>
-      <c r="U982" s="18"/>
-      <c r="V982" s="18"/>
-      <c r="W982" s="18"/>
-      <c r="X982" s="18"/>
-      <c r="Y982" s="18"/>
-      <c r="Z982" s="18"/>
-      <c r="AA982" s="18"/>
-      <c r="AB982" s="18"/>
-      <c r="AC982" s="18"/>
-      <c r="AD982" s="18"/>
-      <c r="AE982" s="18"/>
-      <c r="AF982" s="18"/>
-      <c r="AG982" s="18"/>
-      <c r="AH982" s="18"/>
-      <c r="AI982" s="18"/>
-      <c r="AJ982" s="18"/>
-      <c r="AK982" s="18"/>
-      <c r="AL982" s="18"/>
-      <c r="AM982" s="18"/>
-      <c r="AN982" s="18"/>
-      <c r="AO982" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
